--- a/data/trans_orig/OT3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C04344-4870-489B-8FA6-9783E373CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E784B1-C52F-41DF-920C-77C213644C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3475BD0B-F32C-45CA-A4E3-B5280301EBF7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF340101-8043-48FF-89EA-5DB847E15ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BE9523-2B18-46D3-B2A8-70756F018FC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283C1AC-DCA2-4A26-A6A1-13A368CD45F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B61954D-26F7-4BB6-8CD3-C25463BDF88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913719F3-E19D-4AF1-8317-51A9AB67FAF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E784B1-C52F-41DF-920C-77C213644C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7523AFA-476E-44DF-BAEC-324A0B29639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF340101-8043-48FF-89EA-5DB847E15ED5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C460AFEB-E274-4E45-BB01-E17255817907}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -75,13 +75,13 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población con diagnóstico de otra enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283C1AC-DCA2-4A26-A6A1-13A368CD45F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47C49C-EB32-4EFB-BBAF-99A0B8952173}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913719F3-E19D-4AF1-8317-51A9AB67FAF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B94AF4E-F7A9-4F7A-844A-97FA1F14E7C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7523AFA-476E-44DF-BAEC-324A0B29639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47DF3A1-1DC1-4378-8D5F-32718A8CA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C460AFEB-E274-4E45-BB01-E17255817907}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{82DDC711-1466-4FA9-9B7D-01353EF49B59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47C49C-EB32-4EFB-BBAF-99A0B8952173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C268E-F2A2-4591-93AE-689D434865B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B94AF4E-F7A9-4F7A-844A-97FA1F14E7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A721C9-F6DC-4E4F-AE3B-A8E57A4E35FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47DF3A1-1DC1-4378-8D5F-32718A8CA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{812DB4C2-66FE-4EB4-A3D1-300440FE39E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{82DDC711-1466-4FA9-9B7D-01353EF49B59}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D993104A-7ECC-45D4-B973-058DB5349EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="20">
   <si>
     <t>Población con diagnóstico de otra enfermedad 3 en 2012 (Tasa respuesta: 0,02%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -75,13 +75,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -511,8 +508,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C268E-F2A2-4591-93AE-689D434865B4}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA191C31-4B47-47CD-B75E-EB3783AA6305}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -813,17 +810,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>983</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -839,17 +838,19 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>983</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -858,17 +859,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>983</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -884,40 +887,40 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>983</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -933,19 +936,17 @@
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -954,19 +955,17 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -982,40 +981,40 @@
         <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>983</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1031,17 +1030,19 @@
         <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>983</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1050,17 +1051,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>983</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1076,130 +1079,31 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>983</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>983</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>983</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>983</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>983</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1212,8 +1116,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A721C9-F6DC-4E4F-AE3B-A8E57A4E35FC}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36507809-920D-4C45-B312-B2BC69DE6A0C}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1229,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1600,23 +1504,25 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>961</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1632,17 +1538,19 @@
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>961</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,17 +1559,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>961</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1677,22 +1587,24 @@
         <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>961</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1704,13 +1616,13 @@
         <v>961</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1732,13 +1644,13 @@
         <v>961</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1665,13 @@
         <v>961</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1781,126 +1693,25 @@
         <v>961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>961</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>961</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>961</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>961</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
